--- a/Financial Services/Mastercard.xlsx
+++ b/Financial Services/Mastercard.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B30DD9-15E5-474E-9041-D3B504F25012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB7071F-6B58-374C-BEC0-F6F3DB5DEDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106:$B$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19:$B$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$C$3:$Y$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$C$106:$Y$106</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$C$19:$Y$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$C$3:$Y$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$A$106:$B$106</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$19:$B$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$3:$B$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$C$106:$Y$106</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$C$19:$Y$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -970,18 +957,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1016,12 +991,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1039,6 +1008,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2409,11 +2396,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>390</v>
+    <v>392.2</v>
     <v>276.87</v>
-    <v>1.1066</v>
-    <v>0.48</v>
-    <v>1.2889999999999998E-3</v>
+    <v>1.1045</v>
+    <v>-6.45</v>
+    <v>-1.6452999999999999E-2</v>
+    <v>1.43</v>
+    <v>3.7090000000000001E-3</v>
     <v>USD</v>
     <v>Mastercard Incorporated is a technology company that connects consumers, financial institutions, merchants, governments and businesses across the world, enabling them to use electronic forms of payment. The Company allows users to make payments by creating a range of payment solutions and services using its brands, which include MasterCard, Maestro and Cirrus. The Company's services facilitate transactions on its core network among account holders, merchants, financial institutions, businesses, governments and other organizations in markets globally. Its products include consumer credit, consumer debit and prepaid, and commercial credit and debit. The Company offers additional payment capabilities that include automated clearing house (ACH) transactions (both batch and real-time account-based payments). The Company also offers other services, including cyber and intelligence solutions. The Company has connections across more than 210 countries and territories.</v>
     <v>29900</v>
@@ -2421,24 +2410,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2000 Purchase St, PURCHASE, NY, 10577-2405 US</v>
-    <v>374.15</v>
+    <v>392.2</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45035.994905497653</v>
+    <v>45065.999063969532</v>
     <v>0</v>
-    <v>371.15499999999997</v>
-    <v>355368841280</v>
+    <v>385.14</v>
+    <v>365377300000</v>
     <v>MASTERCARD INCORPORATED.</v>
     <v>MASTERCARD INCORPORATED.</v>
-    <v>372.99</v>
-    <v>36.470100000000002</v>
-    <v>372.32</v>
-    <v>372.8</v>
-    <v>953242600</v>
+    <v>392</v>
+    <v>38.5105</v>
+    <v>392.02</v>
+    <v>385.57</v>
+    <v>387</v>
+    <v>947628800</v>
     <v>MA</v>
     <v>MASTERCARD INCORPORATED. (XNYS:MA)</v>
-    <v>1795447</v>
-    <v>2912511</v>
+    <v>3369116</v>
+    <v>2438888</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -2470,6 +2460,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2490,6 +2482,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2506,7 +2499,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2517,13 +2510,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2589,13 +2585,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2640,6 +2642,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2647,6 +2652,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3008,10 +3016,10 @@
   <dimension ref="A1:AH118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA129" sqref="AA129"/>
+      <selection pane="bottomRight" activeCell="AC95" sqref="AC95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3327,7 +3335,7 @@
         <v>0.17406509140873339</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AE4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:AD4" si="0">(F3/E3)-1</f>
         <v>0.17921451984368408</v>
       </c>
       <c r="G4" s="15">
@@ -3788,7 +3796,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:Z9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:Y9" si="1">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
@@ -4160,7 +4168,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="15" t="e">
-        <f t="shared" ref="C13:Z13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:Y13" si="2">C12/C3</f>
         <v>#VALUE!</v>
       </c>
       <c r="D13" s="15">
@@ -4516,15 +4524,15 @@
       </c>
       <c r="AF16" s="30">
         <f>AG101/Y3</f>
-        <v>15.98097051220938</v>
+        <v>16.431051850519406</v>
       </c>
       <c r="AG16" s="30">
         <f>AG101/Y28</f>
-        <v>35.787395899295063</v>
+        <v>36.795297079556896</v>
       </c>
       <c r="AH16" s="31">
         <f>AG101/Y106</f>
-        <v>35.192002503466036</v>
+        <v>36.183135274311745</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4783,7 +4791,7 @@
         <v>-0.20344044037636821</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:Z20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:Y20" si="3">(F19/E19)-1</f>
         <v>-2.703880784112048</v>
       </c>
       <c r="G20" s="15">
@@ -5497,7 +5505,7 @@
         <v>-0.18042953379182181</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:Z29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:Y29" si="4">(F28/E28)-1</f>
         <v>-4.3135473120957837</v>
       </c>
       <c r="G29" s="15">
@@ -5972,7 +5980,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:Z35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:Y35" si="5">(D34-C34)/C34</f>
         <v>1.460021456884964E-3</v>
       </c>
       <c r="E35" s="22">
@@ -9453,7 +9461,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:Z80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:Y80" si="6">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
@@ -9779,10 +9787,10 @@
       <c r="Y83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF83" s="33" t="s">
+      <c r="AF83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AG83" s="34"/>
+      <c r="AG83" s="62"/>
     </row>
     <row r="84" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9860,10 +9868,10 @@
       <c r="Y84" s="1">
         <v>190000000</v>
       </c>
-      <c r="AF84" s="35" t="s">
+      <c r="AF84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AG84" s="36"/>
+      <c r="AG84" s="64"/>
     </row>
     <row r="85" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10193,10 +10201,10 @@
       <c r="Y88" s="1">
         <v>-442000000</v>
       </c>
-      <c r="AF88" s="37" t="s">
+      <c r="AF88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AG88" s="38">
+      <c r="AG88" s="34">
         <f>AG85/(AG86+AG87)</f>
         <v>3.3587677387149684E-2</v>
       </c>
@@ -10206,7 +10214,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:Z89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:Y89" si="7">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
@@ -10469,10 +10477,10 @@
       <c r="Y91" s="1">
         <v>-594000000</v>
       </c>
-      <c r="AF91" s="37" t="s">
+      <c r="AF91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AG91" s="38">
+      <c r="AG91" s="34">
         <f>AG89/AG90</f>
         <v>0.15359699965905216</v>
       </c>
@@ -10553,10 +10561,10 @@
       <c r="Y92" s="1">
         <v>272000000</v>
       </c>
-      <c r="AF92" s="39" t="s">
+      <c r="AF92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AG92" s="40">
+      <c r="AG92" s="36">
         <f>AG88*(1-AG91)</f>
         <v>2.8428710914967299E-2</v>
       </c>
@@ -10637,10 +10645,10 @@
       <c r="Y93" s="1">
         <v>-393000000</v>
       </c>
-      <c r="AF93" s="35" t="s">
+      <c r="AF93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AG93" s="36"/>
+      <c r="AG93" s="64"/>
     </row>
     <row r="94" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10721,7 +10729,7 @@
       <c r="AF94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AG94" s="41">
+      <c r="AG94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -10804,9 +10812,9 @@
       <c r="AF95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AG95" s="42" cm="1">
+      <c r="AG95" s="38" cm="1">
         <f t="array" ref="AG95">_FV(A1,"Beta")</f>
-        <v>1.1066</v>
+        <v>1.1045</v>
       </c>
     </row>
     <row r="96" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -10888,7 +10896,7 @@
       <c r="AF96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AG96" s="41">
+      <c r="AG96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10968,12 +10976,12 @@
       <c r="Y97" s="1">
         <v>-8753000000</v>
       </c>
-      <c r="AF97" s="39" t="s">
+      <c r="AF97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AG97" s="40">
+      <c r="AG97" s="36">
         <f>(AG94)+((AG95)*(AG96-AG94))</f>
-        <v>8.8589130000000016E-2</v>
+        <v>8.8498725E-2</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11052,10 +11060,10 @@
       <c r="Y98" s="1">
         <v>-1903000000</v>
       </c>
-      <c r="AF98" s="35" t="s">
+      <c r="AF98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AG98" s="36"/>
+      <c r="AG98" s="64"/>
     </row>
     <row r="99" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11217,12 +11225,12 @@
       <c r="Y100" s="10">
         <v>-10328000000</v>
       </c>
-      <c r="AF100" s="37" t="s">
+      <c r="AF100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AG100" s="38">
+      <c r="AG100" s="34">
         <f>AG99/AG103</f>
-        <v>3.7962397738423595E-2</v>
+        <v>3.6960961812629034E-2</v>
       </c>
     </row>
     <row r="101" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11304,9 +11312,9 @@
       <c r="AF101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AG101" s="43" cm="1">
+      <c r="AG101" s="39" cm="1">
         <f t="array" ref="AG101">_FV(A1,"Market cap",TRUE)</f>
-        <v>355368841280</v>
+        <v>365377300000</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11385,12 +11393,12 @@
       <c r="Y102" s="10">
         <v>-706000000</v>
       </c>
-      <c r="AF102" s="37" t="s">
+      <c r="AF102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AG102" s="38">
+      <c r="AG102" s="34">
         <f>AG101/AG103</f>
-        <v>0.96203760226157642</v>
+        <v>0.96303903818737091</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11469,12 +11477,12 @@
       <c r="Y103" s="1">
         <v>9902000000</v>
       </c>
-      <c r="AF103" s="39" t="s">
+      <c r="AF103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AG103" s="44">
+      <c r="AG103" s="40">
         <f>AG99+AG101</f>
-        <v>369391841280</v>
+        <v>379400300000</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11553,10 +11561,10 @@
       <c r="Y104" s="11">
         <v>9196000000</v>
       </c>
-      <c r="AF104" s="35" t="s">
+      <c r="AF104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AG104" s="36"/>
+      <c r="AG104" s="64"/>
     </row>
     <row r="105" spans="1:33" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11584,7 +11592,7 @@
         <v>4.6549228312932414</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:Z105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:Y105" si="8">(H106/G106)-1</f>
         <v>-0.28156527631380812</v>
       </c>
       <c r="I105" s="15">
@@ -11666,7 +11674,7 @@
       </c>
       <c r="AG105" s="26">
         <f>(AG100*AG92)+(AG102*AG97)</f>
-        <v>8.6305296242583762E-2</v>
+        <v>8.6278479503319017E-2</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11745,33 +11753,33 @@
       <c r="Y106" s="1">
         <v>10098000000</v>
       </c>
-      <c r="Z106" s="45">
+      <c r="Z106" s="41">
         <f>Y106*(1+$AG$106)</f>
         <v>11326067497.969479</v>
       </c>
-      <c r="AA106" s="45">
+      <c r="AA106" s="41">
         <f t="shared" ref="AA106:AD106" si="9">Z106*(1+$AG$106)</f>
         <v>12703486330.814083</v>
       </c>
-      <c r="AB106" s="45">
+      <c r="AB106" s="41">
         <f t="shared" si="9"/>
         <v>14248419849.706173</v>
       </c>
-      <c r="AC106" s="45">
+      <c r="AC106" s="41">
         <f t="shared" si="9"/>
         <v>15981240340.382278</v>
       </c>
-      <c r="AD106" s="45">
+      <c r="AD106" s="41">
         <f t="shared" si="9"/>
         <v>17924797662.551239</v>
       </c>
-      <c r="AE106" s="46" t="s">
+      <c r="AE106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AF106" s="47" t="s">
+      <c r="AF106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AG106" s="48">
+      <c r="AG106" s="44">
         <f>(SUM(Z4:AD4)/5)</f>
         <v>0.12161492354619523</v>
       </c>
@@ -11802,151 +11810,151 @@
       <c r="W107" s="13"/>
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
-      <c r="Z107" s="46"/>
-      <c r="AA107" s="46"/>
-      <c r="AB107" s="46"/>
-      <c r="AC107" s="46"/>
-      <c r="AD107" s="49">
+      <c r="Z107" s="42"/>
+      <c r="AA107" s="42"/>
+      <c r="AB107" s="42"/>
+      <c r="AC107" s="42"/>
+      <c r="AD107" s="45">
         <f>AD106*(1+AG107)/(AG108-AG107)</f>
-        <v>299695437918.01886</v>
-      </c>
-      <c r="AE107" s="50" t="s">
+        <v>299826590885.30237</v>
+      </c>
+      <c r="AE107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AF107" s="51" t="s">
+      <c r="AF107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AG107" s="52">
+      <c r="AG107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z108" s="49">
+      <c r="Z108" s="45">
         <f t="shared" ref="Z108:AB108" si="10">Z107+Z106</f>
         <v>11326067497.969479</v>
       </c>
-      <c r="AA108" s="49">
+      <c r="AA108" s="45">
         <f t="shared" si="10"/>
         <v>12703486330.814083</v>
       </c>
-      <c r="AB108" s="49">
+      <c r="AB108" s="45">
         <f t="shared" si="10"/>
         <v>14248419849.706173</v>
       </c>
-      <c r="AC108" s="49">
+      <c r="AC108" s="45">
         <f>AC107+AC106</f>
         <v>15981240340.382278</v>
       </c>
-      <c r="AD108" s="49">
+      <c r="AD108" s="45">
         <f>AD107+AD106</f>
-        <v>317620235580.57007</v>
-      </c>
-      <c r="AE108" s="50" t="s">
+        <v>317751388547.85364</v>
+      </c>
+      <c r="AE108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AF108" s="53" t="s">
+      <c r="AF108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AG108" s="54">
+      <c r="AG108" s="50">
         <f>AG105</f>
-        <v>8.6305296242583762E-2</v>
+        <v>8.6278479503319017E-2</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z109" s="55" t="s">
+      <c r="Z109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="AA109" s="56"/>
+      <c r="AA109" s="60"/>
     </row>
     <row r="110" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z110" s="57" t="s">
+      <c r="Z110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="AA110" s="43">
+      <c r="AA110" s="39">
         <f>NPV(AG108,Z108,AA108,AB108,AC108,AD108)</f>
-        <v>253748578115.44861</v>
+        <v>253863952342.00095</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z111" s="57" t="s">
+      <c r="Z111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="AA111" s="43">
+      <c r="AA111" s="39">
         <f>Y40</f>
         <v>7408000000</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z112" s="57" t="s">
+      <c r="Z112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="AA112" s="43">
+      <c r="AA112" s="39">
         <f>AG99</f>
         <v>14023000000</v>
       </c>
     </row>
     <row r="113" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z113" s="57" t="s">
+      <c r="Z113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="AA113" s="43">
+      <c r="AA113" s="39">
         <f>AA110+AA111-AA112</f>
-        <v>247133578115.44861</v>
+        <v>247248952342.00095</v>
       </c>
     </row>
     <row r="114" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z114" s="57" t="s">
+      <c r="Z114" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="AA114" s="58">
+      <c r="AA114" s="52">
         <f>Y34*(1+(5*AE16))</f>
         <v>876186247.41850889</v>
       </c>
     </row>
     <row r="115" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z115" s="59" t="s">
+      <c r="Z115" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="AA115" s="60">
+      <c r="AA115" s="54">
         <f>AA113/AA114</f>
-        <v>282.05598848826219</v>
+        <v>282.18766623017183</v>
       </c>
     </row>
     <row r="116" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z116" s="57" t="s">
+      <c r="Z116" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="AA116" s="61" cm="1">
+      <c r="AA116" s="55" cm="1">
         <f t="array" ref="AA116">_FV(A1,"Price",TRUE)</f>
-        <v>372.8</v>
+        <v>385.57</v>
       </c>
     </row>
     <row r="117" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z117" s="62" t="s">
+      <c r="Z117" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AA117" s="63">
+      <c r="AA117" s="57">
         <f>AA115/AA116-1</f>
-        <v>-0.24341204804650707</v>
+        <v>-0.26812857268415113</v>
       </c>
     </row>
     <row r="118" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z118" s="62" t="s">
+      <c r="Z118" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="AA118" s="64" t="str">
+      <c r="AA118" s="58" t="str">
         <f>IF(AA115&gt;AA116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Z109:AA109"/>
     <mergeCell ref="AF83:AG83"/>
     <mergeCell ref="AF84:AG84"/>
     <mergeCell ref="AF93:AG93"/>
     <mergeCell ref="AF98:AG98"/>
     <mergeCell ref="AF104:AG104"/>
-    <mergeCell ref="Z109:AA109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/MA" display="ROIC.AI | MA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
